--- a/data_output/prism_passive/all_passive_out_length_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>107.44676622125317</v>
+        <v>107.44676621295088</v>
       </c>
       <c r="C2">
-        <v>125.65267692517764</v>
+        <v>125.6526769235178</v>
       </c>
       <c r="D2">
-        <v>82.389671701093874</v>
+        <v>82.389671714405935</v>
       </c>
       <c r="E2">
-        <v>163.96513182685658</v>
+        <v>163.9651318227765</v>
       </c>
       <c r="F2">
-        <v>104.94482232532044</v>
+        <v>104.94482232544367</v>
       </c>
       <c r="G2">
-        <v>144.15993070381614</v>
+        <v>144.15993074268255</v>
       </c>
       <c r="H2">
-        <v>97.547139472479358</v>
+        <v>97.547139465415924</v>
       </c>
       <c r="I2">
-        <v>129.35282490044111</v>
+        <v>129.35282489881558</v>
       </c>
       <c r="J2">
-        <v>86.44513519545275</v>
+        <v>86.445135235460583</v>
       </c>
       <c r="K2">
-        <v>95.159566313025636</v>
+        <v>95.159566333615928</v>
       </c>
       <c r="L2">
-        <v>78.275526515541088</v>
+        <v>78.275526525122331</v>
       </c>
       <c r="M2">
-        <v>129.67274955985343</v>
+        <v>129.67274955335699</v>
       </c>
       <c r="N2">
-        <v>169.78614578710949</v>
+        <v>169.78614579860829</v>
       </c>
       <c r="O2">
-        <v>136.81682590524571</v>
+        <v>136.81682590946309</v>
       </c>
       <c r="P2">
-        <v>169.15030616851882</v>
+        <v>169.15030620334295</v>
       </c>
       <c r="Q2">
-        <v>156.07406708367438</v>
+        <v>156.07406711234887</v>
       </c>
       <c r="R2">
-        <v>179.30503969195956</v>
+        <v>179.30503971052411</v>
       </c>
       <c r="S2">
-        <v>133.44936769822846</v>
+        <v>133.44936772573729</v>
       </c>
       <c r="T2">
-        <v>137.95730865500516</v>
+        <v>137.95730865169773</v>
       </c>
       <c r="U2">
-        <v>112.41863610535553</v>
+        <v>112.41863611098347</v>
       </c>
       <c r="V2">
-        <v>136.98257201036341</v>
+        <v>136.98257204884885</v>
       </c>
       <c r="W2">
-        <v>190.56479130577065</v>
+        <v>190.56479130607241</v>
       </c>
       <c r="X2">
-        <v>128.71340677946102</v>
+        <v>128.71340678363941</v>
       </c>
       <c r="Y2">
-        <v>141.41518069509166</v>
+        <v>141.41518070407716</v>
       </c>
       <c r="Z2">
-        <v>90.719442927740729</v>
+        <v>90.71944292982495</v>
       </c>
       <c r="AA2">
-        <v>120.78130512759796</v>
+        <v>120.78130516325939</v>
       </c>
       <c r="AB2">
-        <v>118.10336612068311</v>
+        <v>118.10336614340864</v>
       </c>
       <c r="AC2">
-        <v>90.302673816783837</v>
+        <v>90.302673844056329</v>
       </c>
       <c r="AD2">
-        <v>138.68487387443406</v>
+        <v>138.68487390687415</v>
       </c>
       <c r="AE2">
-        <v>108.13760623771988</v>
+        <v>108.13760623866898</v>
       </c>
       <c r="AF2">
-        <v>133.51427823859731</v>
+        <v>133.51427826526611</v>
       </c>
       <c r="AG2">
-        <v>97.927294273355088</v>
+        <v>97.927294265379984</v>
       </c>
       <c r="AH2">
-        <v>122.69979026996305</v>
+        <v>122.69979028740011</v>
       </c>
       <c r="AI2">
-        <v>106.35273881890762</v>
+        <v>106.35273883757597</v>
       </c>
       <c r="AJ2">
-        <v>98.120125310790741</v>
+        <v>98.120125296839618</v>
       </c>
       <c r="AK2">
-        <v>70.898578375058051</v>
+        <v>70.898578395373391</v>
       </c>
       <c r="AL2">
-        <v>119.98072841743317</v>
+        <v>119.98072843183996</v>
       </c>
       <c r="AM2">
-        <v>170.83720409770928</v>
+        <v>170.83720408676572</v>
       </c>
       <c r="AN2">
-        <v>135.07188181214082</v>
+        <v>135.07188180764757</v>
       </c>
       <c r="AO2">
-        <v>164.77952050451302</v>
+        <v>164.77952052653521</v>
       </c>
       <c r="AP2">
-        <v>169.67466500424968</v>
+        <v>169.67466503349823</v>
       </c>
       <c r="AQ2">
-        <v>178.11944818948297</v>
+        <v>178.11944824163936</v>
       </c>
       <c r="AR2">
-        <v>130.18283780833559</v>
+        <v>130.18283779973245</v>
       </c>
       <c r="AS2">
-        <v>135.58353011587093</v>
+        <v>135.58353016122811</v>
       </c>
       <c r="AT2">
-        <v>112.61276550208166</v>
+        <v>112.61276551923329</v>
       </c>
       <c r="AU2">
-        <v>143.64767646728123</v>
+        <v>143.6476764914969</v>
       </c>
       <c r="AV2">
-        <v>174.6692232372171</v>
+        <v>174.66922327763592</v>
       </c>
       <c r="AW2">
-        <v>123.27380219636274</v>
+        <v>123.27380222422296</v>
       </c>
       <c r="AX2">
-        <v>149.49574185151027</v>
+        <v>149.49574187606535</v>
       </c>
       <c r="AY2">
-        <v>118.63912132334377</v>
+        <v>118.63912134381923</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>122.96909246721683</v>
+        <v>122.96909250087002</v>
       </c>
       <c r="C3">
-        <v>104.90161277565478</v>
+        <v>104.90161275513701</v>
       </c>
       <c r="D3">
-        <v>86.71685137016118</v>
+        <v>86.716851373689707</v>
       </c>
       <c r="E3">
-        <v>154.11507207635316</v>
+        <v>154.11507207414115</v>
       </c>
       <c r="F3">
-        <v>127.62489796981338</v>
+        <v>127.62489798320382</v>
       </c>
       <c r="G3">
-        <v>134.58653901470268</v>
+        <v>134.58653899965392</v>
       </c>
       <c r="H3">
-        <v>94.79561760522067</v>
+        <v>94.795617606604736</v>
       </c>
       <c r="I3">
-        <v>135.12933959019753</v>
+        <v>135.12933960703666</v>
       </c>
       <c r="J3">
-        <v>85.231267119080954</v>
+        <v>85.231267123551746</v>
       </c>
       <c r="K3">
-        <v>113.15035790598581</v>
+        <v>113.15035791413149</v>
       </c>
       <c r="L3">
-        <v>108.83126315365142</v>
+        <v>108.83126314047443</v>
       </c>
       <c r="M3">
-        <v>136.99359586599002</v>
+        <v>136.9936567856069</v>
       </c>
       <c r="N3">
-        <v>153.78988853015647</v>
+        <v>153.78988853798359</v>
       </c>
       <c r="O3">
-        <v>129.22963577878502</v>
+        <v>129.22963579216741</v>
       </c>
       <c r="P3">
-        <v>147.15597712862842</v>
+        <v>147.15597711911744</v>
       </c>
       <c r="Q3">
-        <v>148.07122950661724</v>
+        <v>148.07122952807515</v>
       </c>
       <c r="R3">
-        <v>175.87232262854252</v>
+        <v>175.87232263042642</v>
       </c>
       <c r="S3">
-        <v>131.74540763008099</v>
+        <v>131.74540763780453</v>
       </c>
       <c r="T3">
-        <v>144.25623240574913</v>
+        <v>144.25623240459498</v>
       </c>
       <c r="U3">
-        <v>94.796273988969105</v>
+        <v>94.796273982074339</v>
       </c>
       <c r="V3">
-        <v>164.2613955003452</v>
+        <v>164.261395511492</v>
       </c>
       <c r="W3">
-        <v>125.79829317526108</v>
+        <v>125.79829320824558</v>
       </c>
       <c r="X3">
-        <v>139.02931501413389</v>
+        <v>139.02931505703884</v>
       </c>
       <c r="Y3">
-        <v>137.30895051702919</v>
+        <v>137.30895052695814</v>
       </c>
       <c r="Z3">
-        <v>126.55027945188706</v>
+        <v>126.55027946259996</v>
       </c>
       <c r="AA3">
-        <v>118.88432427509497</v>
+        <v>118.88432428387586</v>
       </c>
       <c r="AB3">
-        <v>102.22374635487604</v>
+        <v>102.22374639619099</v>
       </c>
       <c r="AC3">
-        <v>84.3845222240179</v>
+        <v>84.384522255807568</v>
       </c>
       <c r="AD3">
-        <v>150.07045262992386</v>
+        <v>150.07045265432691</v>
       </c>
       <c r="AE3">
-        <v>132.08014003639431</v>
+        <v>132.08014002915576</v>
       </c>
       <c r="AF3">
-        <v>128.79976289653342</v>
+        <v>128.79976292705462</v>
       </c>
       <c r="AG3">
-        <v>92.738786035360093</v>
+        <v>92.738786055751959</v>
       </c>
       <c r="AH3">
-        <v>138.70065036294426</v>
+        <v>138.7006504010121</v>
       </c>
       <c r="AI3">
-        <v>78.018518291613873</v>
+        <v>78.018518312694397</v>
       </c>
       <c r="AJ3">
-        <v>107.70151920953786</v>
+        <v>107.70151919967009</v>
       </c>
       <c r="AK3">
-        <v>83.152681071682011</v>
+        <v>83.152681048561803</v>
       </c>
       <c r="AL3">
-        <v>137.61962945762758</v>
+        <v>137.61962946902</v>
       </c>
       <c r="AM3">
-        <v>158.62855158196135</v>
+        <v>158.6285516080857</v>
       </c>
       <c r="AN3">
-        <v>130.8118054112835</v>
+        <v>130.81180542225752</v>
       </c>
       <c r="AO3">
-        <v>193.15725029407264</v>
+        <v>193.15725034570971</v>
       </c>
       <c r="AP3">
-        <v>146.1976250243126</v>
+        <v>146.19762505049044</v>
       </c>
       <c r="AQ3">
-        <v>173.9014790982084</v>
+        <v>173.90147910765126</v>
       </c>
       <c r="AR3">
-        <v>124.80379491473114</v>
+        <v>124.80379493430712</v>
       </c>
       <c r="AS3">
-        <v>136.4534966749608</v>
+        <v>136.45349669227011</v>
       </c>
       <c r="AT3">
-        <v>95.634226083702856</v>
+        <v>95.634226121655558</v>
       </c>
       <c r="AU3">
-        <v>161.51004492874188</v>
+        <v>161.51004496212516</v>
       </c>
       <c r="AV3">
-        <v>124.42779890515402</v>
+        <v>124.42779884040321</v>
       </c>
       <c r="AW3">
-        <v>128.63747156047532</v>
+        <v>128.63747155418298</v>
       </c>
       <c r="AX3">
-        <v>110.94100402603819</v>
+        <v>110.94100404498349</v>
       </c>
       <c r="AY3">
-        <v>130.85480990859946</v>
+        <v>130.85480990757375</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>107.44676621295088</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>125.6526769235178</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>82.389671714405935</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>163.9651318227765</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>104.94482232544367</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>144.15993074268255</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>97.547139465415924</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>129.35282489881558</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>86.445135235460583</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>95.159566333615928</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>78.275526525122331</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>129.67274955335699</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>169.78614579860829</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>136.81682590946309</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>169.15030620334295</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>156.07406711234887</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>179.30503971052411</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>133.44936772573729</v>
@@ -588,55 +477,55 @@
         <v>90.71944292982495</v>
       </c>
       <c r="AA2">
-        <v>120.78130516325939</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>118.10336614340864</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>90.302673844056329</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>138.68487390687415</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>108.13760623866898</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>133.51427826526611</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>97.927294265379984</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>122.69979028740011</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>106.35273883757597</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>98.120125296839618</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>70.898578395373391</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>119.98072843183996</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>170.83720408676572</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>135.07188180764757</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>164.77952052653521</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>169.67466503349823</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>178.11944824163936</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>130.18283779973245</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>122.96909250087002</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>104.90161275513701</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>86.716851373689707</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>154.11507207414115</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>127.62489798320382</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>134.58653899965392</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>94.795617606604736</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>135.12933960703666</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>85.231267123551746</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>113.15035791413149</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>108.83126314047443</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>136.9936567856069</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>153.78988853798359</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>129.22963579216741</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>147.15597711911744</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>148.07122952807515</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>175.87232263042642</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>131.74540763780453</v>
@@ -743,55 +629,55 @@
         <v>126.55027946259996</v>
       </c>
       <c r="AA3">
-        <v>118.88432428387586</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>102.22374639619099</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>84.384522255807568</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>150.07045265432691</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>132.08014002915576</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>128.79976292705462</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>92.738786055751959</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>138.7006504010121</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>78.018518312694397</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>107.70151919967009</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>83.152681048561803</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>137.61962946902</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>158.6285516080857</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>130.81180542225752</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>193.15725034570971</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>146.19762505049044</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>173.90147910765126</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>124.80379493430712</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>107.44676622125317</v>
+        <v>136.81682590946309</v>
       </c>
       <c r="C2">
-        <v>125.65267692517764</v>
+        <v>179.30503971052411</v>
       </c>
       <c r="D2">
-        <v>82.389671701093874</v>
+        <v>135.07188180764757</v>
       </c>
       <c r="E2">
-        <v>163.96513182685658</v>
+        <v>178.11944824163936</v>
       </c>
       <c r="F2">
         <v>104.94482232532044</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>122.96909246721683</v>
+        <v>129.22963579216741</v>
       </c>
       <c r="C3">
-        <v>104.90161277565478</v>
+        <v>175.87232263042642</v>
       </c>
       <c r="D3">
-        <v>86.71685137016118</v>
+        <v>130.81180542225752</v>
       </c>
       <c r="E3">
-        <v>154.11507207635316</v>
+        <v>173.65750139831928</v>
       </c>
       <c r="F3">
         <v>127.62489796981338</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>107.44676622125317</v>
+        <v>169.78614579860829</v>
       </c>
       <c r="C2">
-        <v>125.65267692517764</v>
+        <v>136.81682590946309</v>
       </c>
       <c r="D2">
-        <v>82.389671701093874</v>
+        <v>170.83720408676572</v>
       </c>
       <c r="E2">
-        <v>163.96513182685658</v>
+        <v>135.07188180764757</v>
       </c>
       <c r="F2">
         <v>104.94482232532044</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>122.96909246721683</v>
+        <v>153.78988853798359</v>
       </c>
       <c r="C3">
-        <v>104.90161277565478</v>
+        <v>129.22963579216741</v>
       </c>
       <c r="D3">
-        <v>86.71685137016118</v>
+        <v>158.6285516080857</v>
       </c>
       <c r="E3">
-        <v>154.11507207635316</v>
+        <v>130.81180542225752</v>
       </c>
       <c r="F3">
         <v>127.62489796981338</v>

--- a/data_output/prism_passive/all_passive_out_length_GMapo_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_GMapo_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>107.44676621295088</v>
+      </c>
+      <c r="C2">
+        <v>125.6526769235178</v>
+      </c>
+      <c r="D2">
+        <v>82.389671714405935</v>
+      </c>
+      <c r="E2">
+        <v>163.9651318227765</v>
+      </c>
+      <c r="F2">
+        <v>104.94482232544367</v>
+      </c>
+      <c r="G2">
+        <v>144.15993074268255</v>
+      </c>
+      <c r="H2">
+        <v>97.547139465415924</v>
+      </c>
+      <c r="I2">
+        <v>129.35282489881558</v>
+      </c>
+      <c r="J2">
+        <v>86.445135235460583</v>
+      </c>
+      <c r="K2">
+        <v>95.159566333615928</v>
+      </c>
+      <c r="L2">
+        <v>78.275526525122331</v>
+      </c>
+      <c r="M2">
+        <v>129.67274955335699</v>
+      </c>
+      <c r="N2">
         <v>169.78614579860829</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>136.81682590946309</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>169.15030620334295</v>
+      </c>
+      <c r="Q2">
+        <v>156.07406711234887</v>
+      </c>
+      <c r="R2">
+        <v>179.30503971052411</v>
+      </c>
+      <c r="S2">
+        <v>133.44936772573729</v>
+      </c>
+      <c r="T2">
+        <v>137.95730865169773</v>
+      </c>
+      <c r="U2">
+        <v>112.41863611098347</v>
+      </c>
+      <c r="V2">
+        <v>136.98257204884885</v>
+      </c>
+      <c r="W2">
+        <v>190.56479130607241</v>
+      </c>
+      <c r="X2">
+        <v>128.71340678363941</v>
+      </c>
+      <c r="Y2">
+        <v>141.41518070407716</v>
+      </c>
+      <c r="Z2">
+        <v>90.71944292982495</v>
+      </c>
+      <c r="AA2">
+        <v>120.78130516325939</v>
+      </c>
+      <c r="AB2">
+        <v>118.10336614340864</v>
+      </c>
+      <c r="AC2">
+        <v>90.302673844056329</v>
+      </c>
+      <c r="AD2">
+        <v>138.68487390687415</v>
+      </c>
+      <c r="AE2">
+        <v>108.13760623866898</v>
+      </c>
+      <c r="AF2">
+        <v>133.51427826526611</v>
+      </c>
+      <c r="AG2">
+        <v>97.927294265379984</v>
+      </c>
+      <c r="AH2">
+        <v>122.69979028740011</v>
+      </c>
+      <c r="AI2">
+        <v>106.35273883757597</v>
+      </c>
+      <c r="AJ2">
+        <v>98.120125296839618</v>
+      </c>
+      <c r="AK2">
+        <v>70.898578395373391</v>
+      </c>
+      <c r="AL2">
+        <v>119.98072843183996</v>
+      </c>
+      <c r="AM2">
         <v>170.83720408676572</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>135.07188180764757</v>
       </c>
-      <c r="F2">
-        <v>104.94482232532044</v>
-      </c>
-      <c r="G2">
-        <v>144.15993070381614</v>
-      </c>
-      <c r="H2">
-        <v>97.547139472479358</v>
-      </c>
-      <c r="I2">
-        <v>129.35282490044111</v>
-      </c>
-      <c r="J2">
-        <v>86.44513519545275</v>
-      </c>
-      <c r="K2">
-        <v>95.159566313025636</v>
-      </c>
-      <c r="L2">
-        <v>78.275526515541088</v>
-      </c>
-      <c r="M2">
-        <v>129.67274955985343</v>
-      </c>
-      <c r="N2">
-        <v>169.78614578710949</v>
-      </c>
-      <c r="O2">
-        <v>136.81682590524571</v>
-      </c>
-      <c r="P2">
-        <v>169.15030616851882</v>
-      </c>
-      <c r="Q2">
-        <v>156.07406708367438</v>
-      </c>
-      <c r="R2">
-        <v>179.30503969195956</v>
-      </c>
-      <c r="S2">
-        <v>133.44936769822846</v>
-      </c>
-      <c r="T2">
-        <v>137.95730865500516</v>
-      </c>
-      <c r="U2">
-        <v>112.41863610535553</v>
-      </c>
-      <c r="V2">
-        <v>136.98257201036341</v>
-      </c>
-      <c r="W2">
-        <v>190.56479130577065</v>
-      </c>
-      <c r="X2">
-        <v>128.71340677946102</v>
-      </c>
-      <c r="Y2">
-        <v>141.41518069509166</v>
-      </c>
-      <c r="Z2">
-        <v>90.719442927740729</v>
-      </c>
-      <c r="AA2">
-        <v>120.78130512759796</v>
-      </c>
-      <c r="AB2">
-        <v>118.10336612068311</v>
-      </c>
-      <c r="AC2">
-        <v>90.302673816783837</v>
-      </c>
-      <c r="AD2">
-        <v>138.68487387443406</v>
-      </c>
-      <c r="AE2">
-        <v>108.13760623771988</v>
-      </c>
-      <c r="AF2">
-        <v>133.51427823859731</v>
-      </c>
-      <c r="AG2">
-        <v>97.927294273355088</v>
-      </c>
-      <c r="AH2">
-        <v>122.69979026996305</v>
-      </c>
-      <c r="AI2">
-        <v>106.35273881890762</v>
-      </c>
-      <c r="AJ2">
-        <v>98.120125310790741</v>
-      </c>
-      <c r="AK2">
-        <v>70.898578375058051</v>
-      </c>
-      <c r="AL2">
-        <v>119.98072841743317</v>
-      </c>
-      <c r="AM2">
-        <v>170.83720409770928</v>
-      </c>
-      <c r="AN2">
-        <v>135.07188181214082</v>
-      </c>
       <c r="AO2">
-        <v>164.77952050451302</v>
+        <v>164.77952052653521</v>
       </c>
       <c r="AP2">
-        <v>169.02366536026599</v>
+        <v>169.023665382263</v>
       </c>
       <c r="AQ2">
-        <v>178.11944818948297</v>
+        <v>178.11944824163936</v>
       </c>
       <c r="AR2">
-        <v>130.18283780833559</v>
+        <v>130.18283779973245</v>
       </c>
       <c r="AS2">
-        <v>135.58353011587093</v>
+        <v>135.58353016122811</v>
       </c>
       <c r="AT2">
-        <v>112.61276550208166</v>
+        <v>112.61276551923329</v>
       </c>
       <c r="AU2">
-        <v>143.64767646728123</v>
+        <v>143.6476764914969</v>
       </c>
       <c r="AV2">
-        <v>174.6692232372171</v>
+        <v>174.66922327763592</v>
       </c>
       <c r="AW2">
-        <v>123.27380219636274</v>
+        <v>123.27380222422296</v>
       </c>
       <c r="AX2">
-        <v>149.49574185151027</v>
+        <v>149.49574187606535</v>
       </c>
       <c r="AY2">
-        <v>118.63912132334377</v>
+        <v>118.63912134381923</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>122.96909250087002</v>
+      </c>
+      <c r="C3">
+        <v>104.90161275513701</v>
+      </c>
+      <c r="D3">
+        <v>86.716851373689707</v>
+      </c>
+      <c r="E3">
+        <v>154.11507207414115</v>
+      </c>
+      <c r="F3">
+        <v>127.62489798320382</v>
+      </c>
+      <c r="G3">
+        <v>134.58653899965392</v>
+      </c>
+      <c r="H3">
+        <v>94.795617606604736</v>
+      </c>
+      <c r="I3">
+        <v>135.12933960703666</v>
+      </c>
+      <c r="J3">
+        <v>85.231267123551746</v>
+      </c>
+      <c r="K3">
+        <v>113.15035791413149</v>
+      </c>
+      <c r="L3">
+        <v>108.83126314047443</v>
+      </c>
+      <c r="M3">
+        <v>136.9936567856069</v>
+      </c>
+      <c r="N3">
         <v>153.78988853798359</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>129.22963579216741</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>147.15597711911744</v>
+      </c>
+      <c r="Q3">
+        <v>148.07122952807515</v>
+      </c>
+      <c r="R3">
+        <v>175.87232263042642</v>
+      </c>
+      <c r="S3">
+        <v>131.74540763780453</v>
+      </c>
+      <c r="T3">
+        <v>144.25623240459498</v>
+      </c>
+      <c r="U3">
+        <v>94.796273982074339</v>
+      </c>
+      <c r="V3">
+        <v>164.261395511492</v>
+      </c>
+      <c r="W3">
+        <v>126.16918734157628</v>
+      </c>
+      <c r="X3">
+        <v>139.02931505703884</v>
+      </c>
+      <c r="Y3">
+        <v>137.30895052695814</v>
+      </c>
+      <c r="Z3">
+        <v>126.55027946259996</v>
+      </c>
+      <c r="AA3">
+        <v>118.88432428387586</v>
+      </c>
+      <c r="AB3">
+        <v>102.22374639619099</v>
+      </c>
+      <c r="AC3">
+        <v>84.384522255807568</v>
+      </c>
+      <c r="AD3">
+        <v>150.07045265432691</v>
+      </c>
+      <c r="AE3">
+        <v>132.08014002915576</v>
+      </c>
+      <c r="AF3">
+        <v>128.79976292705462</v>
+      </c>
+      <c r="AG3">
+        <v>92.738786055751959</v>
+      </c>
+      <c r="AH3">
+        <v>139.36583807859273</v>
+      </c>
+      <c r="AI3">
+        <v>78.018518312694397</v>
+      </c>
+      <c r="AJ3">
+        <v>107.70151919967009</v>
+      </c>
+      <c r="AK3">
+        <v>83.152681048561803</v>
+      </c>
+      <c r="AL3">
+        <v>137.61962946902</v>
+      </c>
+      <c r="AM3">
         <v>158.6285516080857</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>130.81180542225752</v>
       </c>
-      <c r="F3">
-        <v>127.62489796981338</v>
-      </c>
-      <c r="G3">
-        <v>134.58653901470268</v>
-      </c>
-      <c r="H3">
-        <v>94.79561760522067</v>
-      </c>
-      <c r="I3">
-        <v>135.12933959019753</v>
-      </c>
-      <c r="J3">
-        <v>85.231267119080954</v>
-      </c>
-      <c r="K3">
-        <v>113.15035790598581</v>
-      </c>
-      <c r="L3">
-        <v>108.83126315365142</v>
-      </c>
-      <c r="M3">
-        <v>136.99359586599002</v>
-      </c>
-      <c r="N3">
-        <v>153.78988853015647</v>
-      </c>
-      <c r="O3">
-        <v>129.22963577878502</v>
-      </c>
-      <c r="P3">
-        <v>147.15597712862842</v>
-      </c>
-      <c r="Q3">
-        <v>148.07122950661724</v>
-      </c>
-      <c r="R3">
-        <v>175.87232262854252</v>
-      </c>
-      <c r="S3">
-        <v>131.74540763008099</v>
-      </c>
-      <c r="T3">
-        <v>144.25623240574913</v>
-      </c>
-      <c r="U3">
-        <v>94.796273988969105</v>
-      </c>
-      <c r="V3">
-        <v>164.2613955003452</v>
-      </c>
-      <c r="W3">
-        <v>126.1691872935468</v>
-      </c>
-      <c r="X3">
-        <v>139.02931501413389</v>
-      </c>
-      <c r="Y3">
-        <v>137.30895051702919</v>
-      </c>
-      <c r="Z3">
-        <v>126.55027945188706</v>
-      </c>
-      <c r="AA3">
-        <v>118.88432427509497</v>
-      </c>
-      <c r="AB3">
-        <v>102.22374635487604</v>
-      </c>
-      <c r="AC3">
-        <v>84.3845222240179</v>
-      </c>
-      <c r="AD3">
-        <v>150.07045262992386</v>
-      </c>
-      <c r="AE3">
-        <v>132.08014003639431</v>
-      </c>
-      <c r="AF3">
-        <v>128.79976289653342</v>
-      </c>
-      <c r="AG3">
-        <v>92.738786035360093</v>
-      </c>
-      <c r="AH3">
-        <v>139.36583807159954</v>
-      </c>
-      <c r="AI3">
-        <v>78.018518291613873</v>
-      </c>
-      <c r="AJ3">
-        <v>107.70151920953786</v>
-      </c>
-      <c r="AK3">
-        <v>83.152681071682011</v>
-      </c>
-      <c r="AL3">
-        <v>137.61962945762758</v>
-      </c>
-      <c r="AM3">
-        <v>158.62855158196135</v>
-      </c>
-      <c r="AN3">
-        <v>130.8118054112835</v>
-      </c>
       <c r="AO3">
-        <v>193.15725029407264</v>
+        <v>193.15725034570971</v>
       </c>
       <c r="AP3">
-        <v>146.1976250243126</v>
+        <v>146.19762505049044</v>
       </c>
       <c r="AQ3">
-        <v>173.65750139337226</v>
+        <v>173.65750139831928</v>
       </c>
       <c r="AR3">
-        <v>124.80379491473114</v>
+        <v>124.80379493430712</v>
       </c>
       <c r="AS3">
-        <v>136.4534966749608</v>
+        <v>136.45349669227011</v>
       </c>
       <c r="AT3">
-        <v>95.634226083702856</v>
+        <v>95.634226121655558</v>
       </c>
       <c r="AU3">
-        <v>161.51004492874188</v>
+        <v>161.51004496212516</v>
       </c>
       <c r="AV3">
-        <v>124.42779890515402</v>
+        <v>124.42779884040321</v>
       </c>
       <c r="AW3">
-        <v>128.63747156047532</v>
+        <v>128.63747155418298</v>
       </c>
       <c r="AX3">
-        <v>110.94100402603819</v>
+        <v>110.94100404498349</v>
       </c>
       <c r="AY3">
-        <v>130.85480990859946</v>
+        <v>130.85480990757375</v>
       </c>
     </row>
   </sheetData>
